--- a/Lab_01/Task_1/Task 1.xlsx
+++ b/Lab_01/Task_1/Task 1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Марина\Студенты\Процедурное программирование\Lab_01\Task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4A927D-DE59-4A98-BA3B-4F02FC3FC791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503E3C8-C40C-4F82-B369-E3E3858DA302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7828B029-3ADD-401C-A05D-58D8A1161081}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="1-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
